--- a/dataCollected.xlsx
+++ b/dataCollected.xlsx
@@ -6642,7 +6642,7 @@
   <dimension ref="A2:A678"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
